--- a/4_Data_Extraction/4_0_Meta_Data/Papers_Info_v1.xlsx
+++ b/4_Data_Extraction/4_0_Meta_Data/Papers_Info_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\SPE_Database\4_Data_Extraction\4_0_Meta_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88236573-6353-4723-9643-7B0DE23D268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55D89C-C757-4D0C-AD37-DB716FC6D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6386" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6518" uniqueCount="1556">
   <si>
     <t xml:space="preserve">NOTE </t>
   </si>
@@ -5237,6 +5237,192 @@
   </si>
   <si>
     <t>10.1177/1747021821100420</t>
+  </si>
+  <si>
+    <t>Exploring social biases in language processing</t>
+  </si>
+  <si>
+    <t>The emotional impact of being myself: Emotions and foreign-language processing</t>
+  </si>
+  <si>
+    <t>10.1037/xlm0000179</t>
+  </si>
+  <si>
+    <t>10.1037/xlm0000180</t>
+  </si>
+  <si>
+    <t>10.1037/xlm0000181</t>
+  </si>
+  <si>
+    <t>10.1037/xlm0000182</t>
+  </si>
+  <si>
+    <t>10.1037/xlm0000183</t>
+  </si>
+  <si>
+    <t>Self-bias and the emotionality of foreign languages</t>
+  </si>
+  <si>
+    <t>10.1177/1747021818781017</t>
+  </si>
+  <si>
+    <t>The central locus of self-prioritisation</t>
+  </si>
+  <si>
+    <t>10.1177/1747021818778970</t>
+  </si>
+  <si>
+    <t>An investigation of the modulation and underlying mechanisms of the self bias effect</t>
+  </si>
+  <si>
+    <t>Cultural orientation of self-bias in perceptual matching</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2019.01469</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2019.01470</t>
+  </si>
+  <si>
+    <t>Coupling social attention to the self forms a network for personal significance</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1221862110</t>
+  </si>
+  <si>
+    <t>Self-prioritisation in social cognition</t>
+  </si>
+  <si>
+    <t>Potential Traits and Personal Identity</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/c4wqg</t>
+  </si>
+  <si>
+    <t>The relations between temporal and social perceptual biases: Evidence from perceptual matching</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-018-01662-8</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-018-01662-9</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-018-01662-10</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-018-01662-11</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-018-01662-12</t>
+  </si>
+  <si>
+    <t>The Influence of Group Membership on Prioritization for Visual Awareness</t>
+  </si>
+  <si>
+    <t>Temporal integration as “common currency” of brain and self‐scale‐free activity in resting‐state EEG correlates with temporal delay effects on self‐relatedness</t>
+  </si>
+  <si>
+    <t>10.1002/hbm.25129</t>
+  </si>
+  <si>
+    <t>Awe and Perspective taking</t>
+  </si>
+  <si>
+    <t>Self association facilitates attentional inhibition in human visual search</t>
+  </si>
+  <si>
+    <t>10.3724/SP.J.1041.2018.00028</t>
+  </si>
+  <si>
+    <t>The interaction between social saliency and perceptual saliency</t>
+  </si>
+  <si>
+    <t>10.1080/17470218.2015.1120330</t>
+  </si>
+  <si>
+    <t>10.1080/17470218.2015.1120331</t>
+  </si>
+  <si>
+    <t>Self-reflection orients visual attention downward</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2017.01506</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2017.01507</t>
+  </si>
+  <si>
+    <t>Self-relevance prioritizes access to visual awareness</t>
+  </si>
+  <si>
+    <t>10.1037/xhp0000361</t>
+  </si>
+  <si>
+    <t>10.1037/xhp0000362</t>
+  </si>
+  <si>
+    <t>Self-relevance enhances the benefits of attention on perception</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2018.1498421</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2018.1498422</t>
+  </si>
+  <si>
+    <t>A developmental study of the self‐prioritization effect in children between 6 and 10 years of age</t>
+  </si>
+  <si>
+    <t>10.1111/cdev.13352</t>
+  </si>
+  <si>
+    <t>10.1111/cdev.13353</t>
+  </si>
+  <si>
+    <t>10.1111/cdev.13354</t>
+  </si>
+  <si>
+    <t>10.1111/cdev.13355</t>
+  </si>
+  <si>
+    <t>De l’embarras à l’attention portée à soi</t>
+  </si>
+  <si>
+    <t>Self-associated stimuli produce stronger intentional binding</t>
+  </si>
+  <si>
+    <t>10.1037/xhp0000687</t>
+  </si>
+  <si>
+    <t>Examining the dorsolateral and ventromedial prefrontal cortex involvement in the self-attention network: A randomized, sham-controlled, parallel group, double-blind, and multichannel HD-tDCS study</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2020.00683</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2020.00684</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2020.00685</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2020.00686</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2020.00687</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2020.00688</t>
+  </si>
+  <si>
+    <t>Self‐referential processing and emotion context insensitivity in major depressive disorder</t>
+  </si>
+  <si>
+    <t>10.1111/ejn.14782</t>
+  </si>
+  <si>
+    <t>10.1111/ejn.14783</t>
   </si>
 </sst>
 </file>
@@ -6231,10 +6417,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B186" sqref="B186"/>
-      <selection pane="topRight" activeCell="D78" sqref="D78"/>
+      <selection pane="topRight" activeCell="D161" sqref="D161:E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12770,6 +12956,9 @@
       <c r="C82" s="3">
         <v>23</v>
       </c>
+      <c r="D82" t="s">
+        <v>1494</v>
+      </c>
       <c r="F82" t="s">
         <v>593</v>
       </c>
@@ -12847,6 +13036,9 @@
       <c r="C83" s="3">
         <v>23</v>
       </c>
+      <c r="D83" t="s">
+        <v>1494</v>
+      </c>
       <c r="F83" t="s">
         <v>99</v>
       </c>
@@ -12924,6 +13116,9 @@
       <c r="C84" s="3">
         <v>23</v>
       </c>
+      <c r="D84" t="s">
+        <v>1494</v>
+      </c>
       <c r="F84" t="s">
         <v>99</v>
       </c>
@@ -13001,6 +13196,9 @@
       <c r="C85" s="3">
         <v>23</v>
       </c>
+      <c r="D85" t="s">
+        <v>1494</v>
+      </c>
       <c r="F85" t="s">
         <v>99</v>
       </c>
@@ -13078,6 +13276,9 @@
       <c r="C86" s="3">
         <v>23</v>
       </c>
+      <c r="D86" t="s">
+        <v>1494</v>
+      </c>
       <c r="F86" t="s">
         <v>99</v>
       </c>
@@ -13155,6 +13356,9 @@
       <c r="C87" s="3">
         <v>23</v>
       </c>
+      <c r="D87" t="s">
+        <v>1494</v>
+      </c>
       <c r="F87" t="s">
         <v>99</v>
       </c>
@@ -13232,6 +13436,9 @@
       <c r="C88" s="3">
         <v>23</v>
       </c>
+      <c r="D88" t="s">
+        <v>1494</v>
+      </c>
       <c r="F88" t="s">
         <v>99</v>
       </c>
@@ -13309,6 +13516,12 @@
       <c r="C89" s="3">
         <v>24</v>
       </c>
+      <c r="D89" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1496</v>
+      </c>
       <c r="F89" t="s">
         <v>594</v>
       </c>
@@ -13386,6 +13599,12 @@
       <c r="C90" s="3">
         <v>24</v>
       </c>
+      <c r="D90" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1497</v>
+      </c>
       <c r="F90" t="s">
         <v>112</v>
       </c>
@@ -13463,6 +13682,12 @@
       <c r="C91" s="3">
         <v>24</v>
       </c>
+      <c r="D91" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1498</v>
+      </c>
       <c r="F91" t="s">
         <v>112</v>
       </c>
@@ -13537,6 +13762,12 @@
       <c r="C92" s="3">
         <v>24</v>
       </c>
+      <c r="D92" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1499</v>
+      </c>
       <c r="F92" t="s">
         <v>112</v>
       </c>
@@ -13614,6 +13845,12 @@
       <c r="C93" s="3">
         <v>24</v>
       </c>
+      <c r="D93" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1500</v>
+      </c>
       <c r="F93" t="s">
         <v>112</v>
       </c>
@@ -13691,6 +13928,12 @@
       <c r="C94" s="3">
         <v>25</v>
       </c>
+      <c r="D94" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1502</v>
+      </c>
       <c r="F94" t="s">
         <v>594</v>
       </c>
@@ -13768,6 +14011,12 @@
       <c r="C95" s="3">
         <v>25</v>
       </c>
+      <c r="D95" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1502</v>
+      </c>
       <c r="F95" t="s">
         <v>594</v>
       </c>
@@ -13845,6 +14094,12 @@
       <c r="C96" s="3">
         <v>25</v>
       </c>
+      <c r="D96" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1502</v>
+      </c>
       <c r="F96" t="s">
         <v>594</v>
       </c>
@@ -13922,6 +14177,12 @@
       <c r="C97" s="3">
         <v>25</v>
       </c>
+      <c r="D97" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1502</v>
+      </c>
       <c r="F97" t="s">
         <v>112</v>
       </c>
@@ -13999,6 +14260,12 @@
       <c r="C98" s="3">
         <v>25</v>
       </c>
+      <c r="D98" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1502</v>
+      </c>
       <c r="F98" t="s">
         <v>112</v>
       </c>
@@ -14076,6 +14343,12 @@
       <c r="C99" s="3">
         <v>26</v>
       </c>
+      <c r="D99" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1504</v>
+      </c>
       <c r="F99" t="s">
         <v>600</v>
       </c>
@@ -14153,6 +14426,12 @@
       <c r="C100" s="3">
         <v>26</v>
       </c>
+      <c r="D100" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1504</v>
+      </c>
       <c r="F100" t="s">
         <v>125</v>
       </c>
@@ -14230,6 +14509,12 @@
       <c r="C101" s="3">
         <v>26</v>
       </c>
+      <c r="D101" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1504</v>
+      </c>
       <c r="F101" t="s">
         <v>125</v>
       </c>
@@ -14307,6 +14592,12 @@
       <c r="C102" s="3">
         <v>26</v>
       </c>
+      <c r="D102" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1504</v>
+      </c>
       <c r="F102" t="s">
         <v>125</v>
       </c>
@@ -14384,6 +14675,12 @@
       <c r="C103" s="3">
         <v>26</v>
       </c>
+      <c r="D103" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1504</v>
+      </c>
       <c r="F103" t="s">
         <v>125</v>
       </c>
@@ -14461,6 +14758,12 @@
       <c r="C104" s="3">
         <v>26</v>
       </c>
+      <c r="D104" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1504</v>
+      </c>
       <c r="F104" t="s">
         <v>125</v>
       </c>
@@ -14538,6 +14841,12 @@
       <c r="C105" s="3">
         <v>26</v>
       </c>
+      <c r="D105" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1504</v>
+      </c>
       <c r="F105" t="s">
         <v>125</v>
       </c>
@@ -14564,6 +14873,12 @@
       <c r="C106" s="3">
         <v>26</v>
       </c>
+      <c r="D106" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1504</v>
+      </c>
       <c r="F106" t="s">
         <v>125</v>
       </c>
@@ -14641,6 +14956,12 @@
       <c r="C107" s="3">
         <v>26</v>
       </c>
+      <c r="D107" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1504</v>
+      </c>
       <c r="F107" t="s">
         <v>125</v>
       </c>
@@ -14718,6 +15039,9 @@
       <c r="C108" s="3">
         <v>27</v>
       </c>
+      <c r="D108" t="s">
+        <v>1505</v>
+      </c>
       <c r="F108" t="s">
         <v>601</v>
       </c>
@@ -14795,6 +15119,9 @@
       <c r="C109" s="3">
         <v>27</v>
       </c>
+      <c r="D109" t="s">
+        <v>1505</v>
+      </c>
       <c r="F109" t="s">
         <v>137</v>
       </c>
@@ -14872,6 +15199,9 @@
       <c r="C110" s="3">
         <v>27</v>
       </c>
+      <c r="D110" t="s">
+        <v>1505</v>
+      </c>
       <c r="F110" t="s">
         <v>137</v>
       </c>
@@ -14949,6 +15279,9 @@
       <c r="C111" s="3">
         <v>27</v>
       </c>
+      <c r="D111" t="s">
+        <v>1505</v>
+      </c>
       <c r="F111" t="s">
         <v>137</v>
       </c>
@@ -15026,6 +15359,9 @@
       <c r="C112" s="3">
         <v>27</v>
       </c>
+      <c r="D112" t="s">
+        <v>1505</v>
+      </c>
       <c r="F112" t="s">
         <v>137</v>
       </c>
@@ -15103,6 +15439,9 @@
       <c r="C113" s="3">
         <v>27</v>
       </c>
+      <c r="D113" t="s">
+        <v>1505</v>
+      </c>
       <c r="F113" t="s">
         <v>137</v>
       </c>
@@ -15180,6 +15519,9 @@
       <c r="C114" s="3">
         <v>27</v>
       </c>
+      <c r="D114" t="s">
+        <v>1505</v>
+      </c>
       <c r="F114" t="s">
         <v>137</v>
       </c>
@@ -15257,6 +15599,9 @@
       <c r="C115" s="3">
         <v>27</v>
       </c>
+      <c r="D115" t="s">
+        <v>1505</v>
+      </c>
       <c r="F115" t="s">
         <v>137</v>
       </c>
@@ -15334,6 +15679,9 @@
       <c r="C116" s="3">
         <v>27</v>
       </c>
+      <c r="D116" t="s">
+        <v>1505</v>
+      </c>
       <c r="F116" t="s">
         <v>137</v>
       </c>
@@ -15408,6 +15756,9 @@
       <c r="C117" s="3">
         <v>27</v>
       </c>
+      <c r="D117" t="s">
+        <v>1505</v>
+      </c>
       <c r="F117" t="s">
         <v>137</v>
       </c>
@@ -15485,6 +15836,9 @@
       <c r="C118" s="3">
         <v>27</v>
       </c>
+      <c r="D118" t="s">
+        <v>1505</v>
+      </c>
       <c r="F118" t="s">
         <v>137</v>
       </c>
@@ -15562,6 +15916,12 @@
       <c r="C119" s="3">
         <v>28</v>
       </c>
+      <c r="D119" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1507</v>
+      </c>
       <c r="F119" t="s">
         <v>360</v>
       </c>
@@ -15639,6 +15999,12 @@
       <c r="C120" s="3">
         <v>28</v>
       </c>
+      <c r="D120" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1508</v>
+      </c>
       <c r="F120" t="s">
         <v>360</v>
       </c>
@@ -15716,6 +16082,12 @@
       <c r="C121" s="3">
         <v>29</v>
       </c>
+      <c r="D121" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1510</v>
+      </c>
       <c r="F121" t="s">
         <v>1219</v>
       </c>
@@ -15793,6 +16165,9 @@
       <c r="C122" s="3">
         <v>30</v>
       </c>
+      <c r="D122" t="s">
+        <v>1511</v>
+      </c>
       <c r="F122" t="s">
         <v>610</v>
       </c>
@@ -15867,6 +16242,9 @@
       <c r="C123" s="3">
         <v>30</v>
       </c>
+      <c r="D123" t="s">
+        <v>1511</v>
+      </c>
       <c r="F123" t="s">
         <v>363</v>
       </c>
@@ -15944,6 +16322,9 @@
       <c r="C124" s="3">
         <v>30</v>
       </c>
+      <c r="D124" t="s">
+        <v>1511</v>
+      </c>
       <c r="F124" t="s">
         <v>363</v>
       </c>
@@ -16018,6 +16399,9 @@
       <c r="C125" s="3">
         <v>30</v>
       </c>
+      <c r="D125" t="s">
+        <v>1511</v>
+      </c>
       <c r="F125" t="s">
         <v>363</v>
       </c>
@@ -16092,6 +16476,9 @@
       <c r="C126" s="3">
         <v>30</v>
       </c>
+      <c r="D126" t="s">
+        <v>1511</v>
+      </c>
       <c r="F126" t="s">
         <v>363</v>
       </c>
@@ -16166,6 +16553,9 @@
       <c r="C127" s="3">
         <v>30</v>
       </c>
+      <c r="D127" t="s">
+        <v>1511</v>
+      </c>
       <c r="F127" t="s">
         <v>363</v>
       </c>
@@ -16243,6 +16633,9 @@
       <c r="C128" s="3">
         <v>30</v>
       </c>
+      <c r="D128" t="s">
+        <v>1511</v>
+      </c>
       <c r="F128" t="s">
         <v>363</v>
       </c>
@@ -16281,6 +16674,9 @@
       <c r="C129" s="3">
         <v>30</v>
       </c>
+      <c r="D129" t="s">
+        <v>1511</v>
+      </c>
       <c r="F129" t="s">
         <v>363</v>
       </c>
@@ -16319,6 +16715,9 @@
       <c r="C130" s="3">
         <v>30</v>
       </c>
+      <c r="D130" t="s">
+        <v>1511</v>
+      </c>
       <c r="F130" t="s">
         <v>363</v>
       </c>
@@ -16357,6 +16756,12 @@
       <c r="C131" s="3">
         <v>31</v>
       </c>
+      <c r="D131" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1513</v>
+      </c>
       <c r="F131" t="s">
         <v>612</v>
       </c>
@@ -16431,6 +16836,12 @@
       <c r="C132" s="3">
         <v>32</v>
       </c>
+      <c r="D132" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1515</v>
+      </c>
       <c r="F132" t="s">
         <v>153</v>
       </c>
@@ -16505,6 +16916,12 @@
       <c r="C133" s="3">
         <v>32</v>
       </c>
+      <c r="D133" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1516</v>
+      </c>
       <c r="F133" t="s">
         <v>153</v>
       </c>
@@ -16579,6 +16996,12 @@
       <c r="C134" s="3">
         <v>32</v>
       </c>
+      <c r="D134" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1517</v>
+      </c>
       <c r="F134" t="s">
         <v>153</v>
       </c>
@@ -16653,6 +17076,12 @@
       <c r="C135" s="3">
         <v>32</v>
       </c>
+      <c r="D135" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1518</v>
+      </c>
       <c r="F135" t="s">
         <v>153</v>
       </c>
@@ -16727,6 +17156,12 @@
       <c r="C136" s="3">
         <v>32</v>
       </c>
+      <c r="D136" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1519</v>
+      </c>
       <c r="F136" t="s">
         <v>153</v>
       </c>
@@ -16804,6 +17239,9 @@
       <c r="C137" s="3">
         <v>33</v>
       </c>
+      <c r="D137" t="s">
+        <v>1520</v>
+      </c>
       <c r="F137" t="s">
         <v>376</v>
       </c>
@@ -16842,6 +17280,12 @@
       <c r="C138" s="4">
         <v>34</v>
       </c>
+      <c r="D138" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1522</v>
+      </c>
       <c r="F138" t="s">
         <v>157</v>
       </c>
@@ -16919,6 +17363,9 @@
       <c r="C139" s="3">
         <v>35</v>
       </c>
+      <c r="D139" t="s">
+        <v>1523</v>
+      </c>
       <c r="F139" t="s">
         <v>160</v>
       </c>
@@ -16957,6 +17404,12 @@
       <c r="C140" s="3">
         <v>36</v>
       </c>
+      <c r="D140" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1525</v>
+      </c>
       <c r="F140" t="s">
         <v>791</v>
       </c>
@@ -17034,6 +17487,12 @@
       <c r="C141" s="3">
         <v>37</v>
       </c>
+      <c r="D141" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1527</v>
+      </c>
       <c r="F141" t="s">
         <v>794</v>
       </c>
@@ -17111,6 +17570,12 @@
       <c r="C142" s="3">
         <v>37</v>
       </c>
+      <c r="D142" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1528</v>
+      </c>
       <c r="F142" t="s">
         <v>378</v>
       </c>
@@ -17188,6 +17653,12 @@
       <c r="C143" s="3">
         <v>38</v>
       </c>
+      <c r="D143" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1530</v>
+      </c>
       <c r="F143" t="s">
         <v>801</v>
       </c>
@@ -17265,6 +17736,12 @@
       <c r="C144" s="3">
         <v>38</v>
       </c>
+      <c r="D144" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1531</v>
+      </c>
       <c r="F144" t="s">
         <v>623</v>
       </c>
@@ -17342,6 +17819,12 @@
       <c r="C145" s="3">
         <v>39</v>
       </c>
+      <c r="D145" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1533</v>
+      </c>
       <c r="F145" t="s">
         <v>629</v>
       </c>
@@ -17416,6 +17899,12 @@
       <c r="C146" s="3">
         <v>39</v>
       </c>
+      <c r="D146" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1534</v>
+      </c>
       <c r="F146" t="s">
         <v>629</v>
       </c>
@@ -17490,6 +17979,12 @@
       <c r="C147" s="3">
         <v>40</v>
       </c>
+      <c r="D147" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1536</v>
+      </c>
       <c r="F147" t="s">
         <v>166</v>
       </c>
@@ -17567,6 +18062,12 @@
       <c r="C148" s="3">
         <v>40</v>
       </c>
+      <c r="D148" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1537</v>
+      </c>
       <c r="F148" t="s">
         <v>166</v>
       </c>
@@ -17644,6 +18145,12 @@
       <c r="C149" s="3">
         <v>41</v>
       </c>
+      <c r="D149" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1539</v>
+      </c>
       <c r="F149" t="s">
         <v>814</v>
       </c>
@@ -17721,6 +18228,12 @@
       <c r="C150" s="3">
         <v>41</v>
       </c>
+      <c r="D150" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1540</v>
+      </c>
       <c r="F150" t="s">
         <v>382</v>
       </c>
@@ -17798,6 +18311,12 @@
       <c r="C151" s="3">
         <v>41</v>
       </c>
+      <c r="D151" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1541</v>
+      </c>
       <c r="F151" t="s">
         <v>382</v>
       </c>
@@ -17875,6 +18394,12 @@
       <c r="C152" s="3">
         <v>41</v>
       </c>
+      <c r="D152" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1542</v>
+      </c>
       <c r="F152" t="s">
         <v>382</v>
       </c>
@@ -17952,6 +18477,9 @@
       <c r="C153" s="3">
         <v>42</v>
       </c>
+      <c r="D153" t="s">
+        <v>1543</v>
+      </c>
       <c r="F153" t="s">
         <v>635</v>
       </c>
@@ -17978,6 +18506,12 @@
       <c r="C154" s="3">
         <v>43</v>
       </c>
+      <c r="D154" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1545</v>
+      </c>
       <c r="F154" t="s">
         <v>637</v>
       </c>
@@ -18055,6 +18589,12 @@
       <c r="C155" s="3">
         <v>44</v>
       </c>
+      <c r="D155" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1547</v>
+      </c>
       <c r="F155" t="s">
         <v>170</v>
       </c>
@@ -18129,6 +18669,12 @@
       <c r="C156" s="3">
         <v>44</v>
       </c>
+      <c r="D156" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1548</v>
+      </c>
       <c r="F156" t="s">
         <v>638</v>
       </c>
@@ -18203,6 +18749,12 @@
       <c r="C157" s="3">
         <v>44</v>
       </c>
+      <c r="D157" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1549</v>
+      </c>
       <c r="F157" t="s">
         <v>170</v>
       </c>
@@ -18280,6 +18832,12 @@
       <c r="C158" s="3">
         <v>44</v>
       </c>
+      <c r="D158" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1550</v>
+      </c>
       <c r="F158" t="s">
         <v>170</v>
       </c>
@@ -18357,6 +18915,12 @@
       <c r="C159" s="3">
         <v>44</v>
       </c>
+      <c r="D159" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1551</v>
+      </c>
       <c r="F159" t="s">
         <v>170</v>
       </c>
@@ -18434,6 +18998,12 @@
       <c r="C160" s="3">
         <v>44</v>
       </c>
+      <c r="D160" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1552</v>
+      </c>
       <c r="F160" t="s">
         <v>170</v>
       </c>
@@ -18511,6 +19081,12 @@
       <c r="C161" s="2">
         <v>45</v>
       </c>
+      <c r="D161" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1554</v>
+      </c>
       <c r="F161" t="s">
         <v>1226</v>
       </c>
@@ -18587,6 +19163,12 @@
       </c>
       <c r="C162" s="2">
         <v>45</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1555</v>
       </c>
       <c r="F162" t="s">
         <v>179</v>

--- a/4_Data_Extraction/4_0_Meta_Data/Papers_Info_v1.xlsx
+++ b/4_Data_Extraction/4_0_Meta_Data/Papers_Info_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\SPE_Database\4_Data_Extraction\4_0_Meta_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55D89C-C757-4D0C-AD37-DB716FC6D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176493B-BD09-4DA5-B599-5F49F413CCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6518" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6670" uniqueCount="1646">
   <si>
     <t xml:space="preserve">NOTE </t>
   </si>
@@ -5423,6 +5423,276 @@
   </si>
   <si>
     <t>10.1111/ejn.14783</t>
+  </si>
+  <si>
+    <t>Affective compatibility with the self modulates the self-prioritisation effect</t>
+  </si>
+  <si>
+    <t>10.1080/02699931.2020.1839383</t>
+  </si>
+  <si>
+    <t>10.1080/02699931.2020.1839384</t>
+  </si>
+  <si>
+    <t>10.1080/02699931.2020.1839385</t>
+  </si>
+  <si>
+    <t>10.1080/02699931.2020.1839386</t>
+  </si>
+  <si>
+    <t>Changes in intrinsic functional connectivity and group relevant salience: The case of sport rivalry</t>
+  </si>
+  <si>
+    <t>10.1016/j.bbr.2017.04.045</t>
+  </si>
+  <si>
+    <t>In‐group relevance facilitates learning across existing and new associations</t>
+  </si>
+  <si>
+    <t>10.1002/ejsp.2257</t>
+  </si>
+  <si>
+    <t>10.1002/ejsp.2258</t>
+  </si>
+  <si>
+    <t>10.1002/ejsp.2259</t>
+  </si>
+  <si>
+    <t>10.1002/ejsp.2260</t>
+  </si>
+  <si>
+    <t>10.1002/ejsp.2261</t>
+  </si>
+  <si>
+    <t>Representations of the self: Conditions and effects of self-association</t>
+  </si>
+  <si>
+    <t>Mechanism underlying the self‐enhancement effect of voice attractiveness evaluation: self‐positivity bias and familiarity effect</t>
+  </si>
+  <si>
+    <t>10.1111/sjop.12643</t>
+  </si>
+  <si>
+    <t>Prioritised self-referential processing is modulated by emotional arousal</t>
+  </si>
+  <si>
+    <t>10.1177/1747021819892158</t>
+  </si>
+  <si>
+    <t>Does self-prioritization affect perceptual processes?</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2017.1323813</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2017.1323814</t>
+  </si>
+  <si>
+    <t>Searching for the inner self: Evidence against a direct dependence of the self-prioritization effect on the ventro-medial prefrontal cortex</t>
+  </si>
+  <si>
+    <t>10.1007/s00221-018-5413-1</t>
+  </si>
+  <si>
+    <t>10.1007/s00221-018-5413-2</t>
+  </si>
+  <si>
+    <t>10.1007/s00221-018-5413-3</t>
+  </si>
+  <si>
+    <t>Understanding self-prioritisation: The prioritisation of self-relevant stimuli and its relation to the individual self-esteem</t>
+  </si>
+  <si>
+    <t>10.1080/20445911.2019.1686393</t>
+  </si>
+  <si>
+    <t>About the composition of self-relevance: Conjunctions not features are bound to the self</t>
+  </si>
+  <si>
+    <t>10.3758/s13423-015-0953-x</t>
+  </si>
+  <si>
+    <t>10.1027/1618-3169/a000307</t>
+  </si>
+  <si>
+    <t>Self-prioritization beyond perception</t>
+  </si>
+  <si>
+    <t>10.1027/1618-3169/a000308</t>
+  </si>
+  <si>
+    <t>10.1027/1618-3169/a000309</t>
+  </si>
+  <si>
+    <t>10.1027/1618-3169/a000310</t>
+  </si>
+  <si>
+    <t>10.1027/1618-3169/a000311</t>
+  </si>
+  <si>
+    <t>Distinctiveness effects in self-prioritization</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2017.1346739</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2017.1346740</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2017.1346741</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-020-02070-7</t>
+  </si>
+  <si>
+    <t>Creating a network of importance: The particular effects of self-relevance on stimulus processing</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-020-02070-8</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-020-02070-9</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-020-02070-10</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-020-02070-11</t>
+  </si>
+  <si>
+    <t>10.3758/s13414-020-02070-12</t>
+  </si>
+  <si>
+    <t>The natural egocenter: An experimental account of locating the self</t>
+  </si>
+  <si>
+    <t>10.1016/j.concog.2019.102775</t>
+  </si>
+  <si>
+    <t>10.1016/j.concog.2019.102776</t>
+  </si>
+  <si>
+    <t>10.1016/j.concog.2019.102777</t>
+  </si>
+  <si>
+    <t>When self‐prioritization crosses the senses: Crossmodal self‐prioritization demonstrated between vision and touch</t>
+  </si>
+  <si>
+    <t>Self-prioritization in vision, audition, and touch</t>
+  </si>
+  <si>
+    <t>10.1007/s00221-016-4616-6</t>
+  </si>
+  <si>
+    <t>10.1007/s00221-016-4616-7</t>
+  </si>
+  <si>
+    <t>10.1007/s00221-016-4616-8</t>
+  </si>
+  <si>
+    <t>Effects of Affective Valence on the Prioritization of Self-Relevant Stimuli</t>
+  </si>
+  <si>
+    <t>Self-association and attentional processing regarding perceptually salient items</t>
+  </si>
+  <si>
+    <t>10.1007/s13164-018-0430-3</t>
+  </si>
+  <si>
+    <t>10.1007/s13164-018-0430-4</t>
+  </si>
+  <si>
+    <t>10.1007/s13164-018-0430-5</t>
+  </si>
+  <si>
+    <t>Foreign language effect and psychological distance</t>
+  </si>
+  <si>
+    <t>10.1007/s10936-017-9498-7</t>
+  </si>
+  <si>
+    <t>10.1007/s10936-017-9498-8</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2015.1121946</t>
+  </si>
+  <si>
+    <t>Social salience does not transfer to oculomotor visual search</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2015.1121947</t>
+  </si>
+  <si>
+    <t>10.1080/13506285.2015.1121948</t>
+  </si>
+  <si>
+    <t>10.1037/xhp0000197</t>
+  </si>
+  <si>
+    <t>Testing the idea of privileged awareness of self-relevant information</t>
+  </si>
+  <si>
+    <t>Dissociating biases towards the self and positive emotion</t>
+  </si>
+  <si>
+    <t>10.1080/17470218.2015.1101477</t>
+  </si>
+  <si>
+    <t>10.1080/17470218.2015.1101478</t>
+  </si>
+  <si>
+    <t>10.1080/17470218.2015.1101479</t>
+  </si>
+  <si>
+    <t>10.1080/17470218.2015.1101480</t>
+  </si>
+  <si>
+    <t>10.1037/xhp0000742</t>
+  </si>
+  <si>
+    <t>It goes with the territory: Ownership across spatial boundaries</t>
+  </si>
+  <si>
+    <t>Dissociating hyper and hypoself biases to a core self-representation</t>
+  </si>
+  <si>
+    <t>10.1016/j.cortex.2015.04.024</t>
+  </si>
+  <si>
+    <t>10.1016/j.cortex.2015.04.025</t>
+  </si>
+  <si>
+    <t>10.1016/j.cortex.2015.04.026</t>
+  </si>
+  <si>
+    <t>10.1016/j.cortex.2015.04.027</t>
+  </si>
+  <si>
+    <t>10.1016/j.cortex.2015.04.028</t>
+  </si>
+  <si>
+    <t>10.1016/j.cortex.2015.04.029</t>
+  </si>
+  <si>
+    <t>10.1016/j.tins.2017.09.002</t>
+  </si>
+  <si>
+    <t>Self as object: Emerging trends in self research</t>
+  </si>
+  <si>
+    <t>Self-referential processing is distinct from semantic elaboration: Evidence from long-term memory effects in a patient with amnesia and semantic impairments</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuropsychologia.2013.07.025</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuropsychologia.2013.07.026</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuropsychologia.2013.07.027</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuropsychologia.2013.07.028</t>
   </si>
 </sst>
 </file>
@@ -6417,10 +6687,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B186" sqref="B186"/>
-      <selection pane="topRight" activeCell="D161" sqref="D161:E162"/>
+      <selection pane="topRight" activeCell="D240" sqref="D240:E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19247,6 +19517,12 @@
       <c r="C163" s="4">
         <v>46</v>
       </c>
+      <c r="D163" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1557</v>
+      </c>
       <c r="F163" t="s">
         <v>566</v>
       </c>
@@ -19318,6 +19594,12 @@
       <c r="C164" s="4">
         <v>46</v>
       </c>
+      <c r="D164" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1558</v>
+      </c>
       <c r="F164" t="s">
         <v>1232</v>
       </c>
@@ -19389,6 +19671,12 @@
       <c r="C165" s="4">
         <v>46</v>
       </c>
+      <c r="D165" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1559</v>
+      </c>
       <c r="F165" t="s">
         <v>1232</v>
       </c>
@@ -19460,6 +19748,12 @@
       <c r="C166" s="4">
         <v>46</v>
       </c>
+      <c r="D166" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1560</v>
+      </c>
       <c r="F166" t="s">
         <v>566</v>
       </c>
@@ -19531,6 +19825,12 @@
       <c r="C167" s="3">
         <v>47</v>
       </c>
+      <c r="D167" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1562</v>
+      </c>
       <c r="F167" t="s">
         <v>647</v>
       </c>
@@ -19608,6 +19908,12 @@
       <c r="C168" s="3">
         <v>48</v>
       </c>
+      <c r="D168" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1564</v>
+      </c>
       <c r="F168" t="s">
         <v>182</v>
       </c>
@@ -19685,6 +19991,12 @@
       <c r="C169" s="3">
         <v>48</v>
       </c>
+      <c r="D169" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1565</v>
+      </c>
       <c r="F169" t="s">
         <v>182</v>
       </c>
@@ -19756,6 +20068,12 @@
       <c r="C170" s="3">
         <v>48</v>
       </c>
+      <c r="D170" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1566</v>
+      </c>
       <c r="F170" t="s">
         <v>182</v>
       </c>
@@ -19827,6 +20145,12 @@
       <c r="C171" s="3">
         <v>48</v>
       </c>
+      <c r="D171" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1567</v>
+      </c>
       <c r="F171" t="s">
         <v>182</v>
       </c>
@@ -19904,6 +20228,12 @@
       <c r="C172" s="3">
         <v>48</v>
       </c>
+      <c r="D172" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1568</v>
+      </c>
       <c r="F172" t="s">
         <v>182</v>
       </c>
@@ -19981,6 +20311,9 @@
       <c r="C173" s="3">
         <v>49</v>
       </c>
+      <c r="D173" t="s">
+        <v>1569</v>
+      </c>
       <c r="F173" t="s">
         <v>1248</v>
       </c>
@@ -20058,6 +20391,9 @@
       <c r="C174" s="3">
         <v>49</v>
       </c>
+      <c r="D174" t="s">
+        <v>1569</v>
+      </c>
       <c r="F174" t="s">
         <v>394</v>
       </c>
@@ -20135,6 +20471,9 @@
       <c r="C175" s="3">
         <v>49</v>
       </c>
+      <c r="D175" t="s">
+        <v>1569</v>
+      </c>
       <c r="F175" t="s">
         <v>394</v>
       </c>
@@ -20209,6 +20548,9 @@
       <c r="C176" s="3">
         <v>49</v>
       </c>
+      <c r="D176" t="s">
+        <v>1569</v>
+      </c>
       <c r="F176" t="s">
         <v>394</v>
       </c>
@@ -20286,6 +20628,12 @@
       <c r="C177" s="3">
         <v>50</v>
       </c>
+      <c r="D177" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1571</v>
+      </c>
       <c r="F177" t="s">
         <v>862</v>
       </c>
@@ -20327,6 +20675,12 @@
       <c r="C178" s="4">
         <v>51</v>
       </c>
+      <c r="D178" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1573</v>
+      </c>
       <c r="F178" t="s">
         <v>867</v>
       </c>
@@ -20404,6 +20758,12 @@
       <c r="C179" s="4">
         <v>51</v>
       </c>
+      <c r="D179" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1573</v>
+      </c>
       <c r="F179" t="s">
         <v>399</v>
       </c>
@@ -20481,6 +20841,12 @@
       <c r="C180" s="4">
         <v>51</v>
       </c>
+      <c r="D180" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1573</v>
+      </c>
       <c r="F180" t="s">
         <v>399</v>
       </c>
@@ -20558,6 +20924,12 @@
       <c r="C181" s="4">
         <v>51</v>
       </c>
+      <c r="D181" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1573</v>
+      </c>
       <c r="F181" t="s">
         <v>399</v>
       </c>
@@ -20635,6 +21007,12 @@
       <c r="C182" s="4">
         <v>51</v>
       </c>
+      <c r="D182" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1573</v>
+      </c>
       <c r="F182" t="s">
         <v>399</v>
       </c>
@@ -20712,6 +21090,12 @@
       <c r="C183" s="4">
         <v>51</v>
       </c>
+      <c r="D183" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1573</v>
+      </c>
       <c r="F183" t="s">
         <v>399</v>
       </c>
@@ -20789,6 +21173,12 @@
       <c r="C184" s="4">
         <v>51</v>
       </c>
+      <c r="D184" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1573</v>
+      </c>
       <c r="F184" t="s">
         <v>399</v>
       </c>
@@ -20854,6 +21244,12 @@
       <c r="C185" s="3">
         <v>52</v>
       </c>
+      <c r="D185" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1575</v>
+      </c>
       <c r="F185" t="s">
         <v>187</v>
       </c>
@@ -20931,6 +21327,12 @@
       <c r="C186" s="3">
         <v>52</v>
       </c>
+      <c r="D186" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1576</v>
+      </c>
       <c r="F186" t="s">
         <v>187</v>
       </c>
@@ -21008,6 +21410,12 @@
       <c r="C187" s="3">
         <v>53</v>
       </c>
+      <c r="D187" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1578</v>
+      </c>
       <c r="F187" t="s">
         <v>193</v>
       </c>
@@ -21064,6 +21472,12 @@
       <c r="C188" s="3">
         <v>53</v>
       </c>
+      <c r="D188" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1579</v>
+      </c>
       <c r="F188" t="s">
         <v>193</v>
       </c>
@@ -21135,6 +21549,12 @@
       <c r="C189" s="3">
         <v>53</v>
       </c>
+      <c r="D189" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1580</v>
+      </c>
       <c r="F189" t="s">
         <v>193</v>
       </c>
@@ -21206,6 +21626,12 @@
       <c r="C190" s="4">
         <v>54</v>
       </c>
+      <c r="D190" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1582</v>
+      </c>
       <c r="F190" t="s">
         <v>655</v>
       </c>
@@ -21283,6 +21709,12 @@
       <c r="C191" s="3">
         <v>55</v>
       </c>
+      <c r="D191" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1584</v>
+      </c>
       <c r="F191" t="s">
         <v>895</v>
       </c>
@@ -21360,6 +21792,12 @@
       <c r="C192" s="3">
         <v>56</v>
       </c>
+      <c r="D192" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1585</v>
+      </c>
       <c r="F192" t="s">
         <v>193</v>
       </c>
@@ -21431,6 +21869,12 @@
       <c r="C193" s="3">
         <v>56</v>
       </c>
+      <c r="D193" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1587</v>
+      </c>
       <c r="F193" t="s">
         <v>193</v>
       </c>
@@ -21505,6 +21949,12 @@
       <c r="C194" s="3">
         <v>56</v>
       </c>
+      <c r="D194" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1588</v>
+      </c>
       <c r="F194" t="s">
         <v>193</v>
       </c>
@@ -21579,6 +22029,12 @@
       <c r="C195" s="3">
         <v>56</v>
       </c>
+      <c r="D195" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1589</v>
+      </c>
       <c r="F195" t="s">
         <v>193</v>
       </c>
@@ -21653,6 +22109,12 @@
       <c r="C196" s="3">
         <v>56</v>
       </c>
+      <c r="D196" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1590</v>
+      </c>
       <c r="F196" t="s">
         <v>193</v>
       </c>
@@ -21727,6 +22189,12 @@
       <c r="C197" s="3">
         <v>57</v>
       </c>
+      <c r="D197" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1592</v>
+      </c>
       <c r="F197" t="s">
         <v>917</v>
       </c>
@@ -21804,6 +22272,12 @@
       <c r="C198" s="3">
         <v>57</v>
       </c>
+      <c r="D198" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1593</v>
+      </c>
       <c r="F198" t="s">
         <v>193</v>
       </c>
@@ -21881,6 +22355,12 @@
       <c r="C199" s="3">
         <v>57</v>
       </c>
+      <c r="D199" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1594</v>
+      </c>
       <c r="F199" t="s">
         <v>193</v>
       </c>
@@ -21955,6 +22435,12 @@
       <c r="C200" s="3">
         <v>58</v>
       </c>
+      <c r="D200" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1595</v>
+      </c>
       <c r="F200" t="s">
         <v>193</v>
       </c>
@@ -22032,6 +22518,12 @@
       <c r="C201" s="3">
         <v>58</v>
       </c>
+      <c r="D201" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1597</v>
+      </c>
       <c r="F201" t="s">
         <v>193</v>
       </c>
@@ -22109,6 +22601,12 @@
       <c r="C202" s="3">
         <v>58</v>
       </c>
+      <c r="D202" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1598</v>
+      </c>
       <c r="F202" t="s">
         <v>193</v>
       </c>
@@ -22180,6 +22678,12 @@
       <c r="C203" s="3">
         <v>58</v>
       </c>
+      <c r="D203" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1599</v>
+      </c>
       <c r="F203" t="s">
         <v>193</v>
       </c>
@@ -22251,6 +22755,12 @@
       <c r="C204" s="3">
         <v>58</v>
       </c>
+      <c r="D204" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1600</v>
+      </c>
       <c r="F204" t="s">
         <v>193</v>
       </c>
@@ -22322,6 +22832,12 @@
       <c r="C205" s="3">
         <v>58</v>
       </c>
+      <c r="D205" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1601</v>
+      </c>
       <c r="F205" t="s">
         <v>193</v>
       </c>
@@ -22393,6 +22909,12 @@
       <c r="C206" s="3">
         <v>59</v>
       </c>
+      <c r="D206" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1603</v>
+      </c>
       <c r="F206" t="s">
         <v>193</v>
       </c>
@@ -22467,6 +22989,12 @@
       <c r="C207" s="3">
         <v>59</v>
       </c>
+      <c r="D207" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1604</v>
+      </c>
       <c r="F207" t="s">
         <v>917</v>
       </c>
@@ -22544,6 +23072,12 @@
       <c r="C208" s="3">
         <v>59</v>
       </c>
+      <c r="D208" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1605</v>
+      </c>
       <c r="F208" t="s">
         <v>193</v>
       </c>
@@ -22618,6 +23152,12 @@
       <c r="C209" s="3">
         <v>60</v>
       </c>
+      <c r="D209" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1420</v>
+      </c>
       <c r="F209" t="s">
         <v>193</v>
       </c>
@@ -22695,6 +23235,12 @@
       <c r="C210" s="3">
         <v>61</v>
       </c>
+      <c r="D210" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1608</v>
+      </c>
       <c r="F210" t="s">
         <v>193</v>
       </c>
@@ -22772,6 +23318,12 @@
       <c r="C211" s="3">
         <v>61</v>
       </c>
+      <c r="D211" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1609</v>
+      </c>
       <c r="F211" t="s">
         <v>193</v>
       </c>
@@ -22849,6 +23401,12 @@
       <c r="C212" s="3">
         <v>61</v>
       </c>
+      <c r="D212" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1610</v>
+      </c>
       <c r="F212" t="s">
         <v>193</v>
       </c>
@@ -22926,6 +23484,9 @@
       <c r="C213" s="3">
         <v>62</v>
       </c>
+      <c r="D213" t="s">
+        <v>1611</v>
+      </c>
       <c r="F213" t="s">
         <v>1018</v>
       </c>
@@ -23000,6 +23561,9 @@
       <c r="C214" s="3">
         <v>62</v>
       </c>
+      <c r="D214" t="s">
+        <v>1611</v>
+      </c>
       <c r="F214" t="s">
         <v>932</v>
       </c>
@@ -23077,6 +23641,9 @@
       <c r="C215" s="3">
         <v>62</v>
       </c>
+      <c r="D215" t="s">
+        <v>1611</v>
+      </c>
       <c r="F215" t="s">
         <v>205</v>
       </c>
@@ -23154,6 +23721,9 @@
       <c r="C216" s="3">
         <v>62</v>
       </c>
+      <c r="D216" t="s">
+        <v>1611</v>
+      </c>
       <c r="F216" t="s">
         <v>205</v>
       </c>
@@ -23228,6 +23798,9 @@
       <c r="C217" s="3">
         <v>62</v>
       </c>
+      <c r="D217" t="s">
+        <v>1611</v>
+      </c>
       <c r="F217" t="s">
         <v>205</v>
       </c>
@@ -23305,6 +23878,9 @@
       <c r="C218" s="3">
         <v>62</v>
       </c>
+      <c r="D218" t="s">
+        <v>1611</v>
+      </c>
       <c r="F218" t="s">
         <v>205</v>
       </c>
@@ -23382,6 +23958,12 @@
       <c r="C219" s="3">
         <v>63</v>
       </c>
+      <c r="D219" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1613</v>
+      </c>
       <c r="F219" t="s">
         <v>933</v>
       </c>
@@ -23459,6 +24041,12 @@
       <c r="C220" s="3">
         <v>63</v>
       </c>
+      <c r="D220" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1614</v>
+      </c>
       <c r="F220" t="s">
         <v>211</v>
       </c>
@@ -23536,6 +24124,12 @@
       <c r="C221" s="3">
         <v>63</v>
       </c>
+      <c r="D221" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1615</v>
+      </c>
       <c r="F221" t="s">
         <v>211</v>
       </c>
@@ -23613,6 +24207,12 @@
       <c r="C222" s="3">
         <v>64</v>
       </c>
+      <c r="D222" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1617</v>
+      </c>
       <c r="F222" t="s">
         <v>665</v>
       </c>
@@ -23690,6 +24290,12 @@
       <c r="C223" s="3">
         <v>64</v>
       </c>
+      <c r="D223" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1618</v>
+      </c>
       <c r="F223" t="s">
         <v>217</v>
       </c>
@@ -23767,6 +24373,12 @@
       <c r="C224" s="3">
         <v>65</v>
       </c>
+      <c r="D224" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1619</v>
+      </c>
       <c r="F224" t="s">
         <v>224</v>
       </c>
@@ -23844,6 +24456,12 @@
       <c r="C225" s="3">
         <v>65</v>
       </c>
+      <c r="D225" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1621</v>
+      </c>
       <c r="F225" t="s">
         <v>224</v>
       </c>
@@ -23921,6 +24539,12 @@
       <c r="C226" s="3">
         <v>65</v>
       </c>
+      <c r="D226" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1622</v>
+      </c>
       <c r="F226" t="s">
         <v>224</v>
       </c>
@@ -23998,6 +24622,12 @@
       <c r="C227" s="3">
         <v>66</v>
       </c>
+      <c r="D227" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1623</v>
+      </c>
       <c r="F227" t="s">
         <v>1263</v>
       </c>
@@ -24072,6 +24702,12 @@
       <c r="C228" s="3">
         <v>67</v>
       </c>
+      <c r="D228" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1626</v>
+      </c>
       <c r="F228" t="s">
         <v>934</v>
       </c>
@@ -24146,6 +24782,12 @@
       <c r="C229" s="3">
         <v>67</v>
       </c>
+      <c r="D229" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1627</v>
+      </c>
       <c r="F229" t="s">
         <v>226</v>
       </c>
@@ -24223,6 +24865,12 @@
       <c r="C230" s="3">
         <v>67</v>
       </c>
+      <c r="D230" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1628</v>
+      </c>
       <c r="F230" t="s">
         <v>226</v>
       </c>
@@ -24300,6 +24948,12 @@
       <c r="C231" s="3">
         <v>67</v>
       </c>
+      <c r="D231" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1629</v>
+      </c>
       <c r="F231" t="s">
         <v>226</v>
       </c>
@@ -24377,6 +25031,12 @@
       <c r="C232" s="3">
         <v>68</v>
       </c>
+      <c r="D232" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1630</v>
+      </c>
       <c r="F232" t="s">
         <v>935</v>
       </c>
@@ -24412,6 +25072,12 @@
       <c r="C233" s="3">
         <v>69</v>
       </c>
+      <c r="D233" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1633</v>
+      </c>
       <c r="F233" t="s">
         <v>238</v>
       </c>
@@ -24483,6 +25149,12 @@
       <c r="C234" s="3">
         <v>69</v>
       </c>
+      <c r="D234" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1634</v>
+      </c>
       <c r="F234" t="s">
         <v>238</v>
       </c>
@@ -24554,6 +25226,12 @@
       <c r="C235" s="3">
         <v>69</v>
       </c>
+      <c r="D235" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1635</v>
+      </c>
       <c r="F235" t="s">
         <v>238</v>
       </c>
@@ -24625,6 +25303,12 @@
       <c r="C236" s="3">
         <v>69</v>
       </c>
+      <c r="D236" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1636</v>
+      </c>
       <c r="F236" t="s">
         <v>238</v>
       </c>
@@ -24690,6 +25374,12 @@
       <c r="C237" s="3">
         <v>69</v>
       </c>
+      <c r="D237" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1637</v>
+      </c>
       <c r="F237" t="s">
         <v>238</v>
       </c>
@@ -24764,6 +25454,12 @@
       <c r="C238" s="3">
         <v>69</v>
       </c>
+      <c r="D238" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1638</v>
+      </c>
       <c r="F238" t="s">
         <v>238</v>
       </c>
@@ -24835,6 +25531,12 @@
       <c r="C239" s="3">
         <v>70</v>
       </c>
+      <c r="D239" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1639</v>
+      </c>
       <c r="F239" t="s">
         <v>424</v>
       </c>
@@ -24876,6 +25578,12 @@
       <c r="C240" s="3">
         <v>71</v>
       </c>
+      <c r="D240" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1642</v>
+      </c>
       <c r="F240" t="s">
         <v>668</v>
       </c>
@@ -24923,6 +25631,12 @@
       <c r="C241" s="3">
         <v>71</v>
       </c>
+      <c r="D241" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1643</v>
+      </c>
       <c r="F241" t="s">
         <v>238</v>
       </c>
@@ -24967,6 +25681,12 @@
       <c r="C242" s="3">
         <v>71</v>
       </c>
+      <c r="D242" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1644</v>
+      </c>
       <c r="F242" t="s">
         <v>238</v>
       </c>
@@ -25010,6 +25730,12 @@
       </c>
       <c r="C243" s="3">
         <v>71</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1645</v>
       </c>
       <c r="F243" t="s">
         <v>238</v>
